--- a/BDD1/Factura.xlsx
+++ b/BDD1/Factura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to-Semestre\BDD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF9211-295F-47BC-BCCC-32024D10C919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B60C30-F618-4487-83B5-45FF11E10E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="93">
   <si>
     <t>Sucursal</t>
   </si>
@@ -311,13 +311,19 @@
   </si>
   <si>
     <t>Profe</t>
+  </si>
+  <si>
+    <t>N:M</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,12 +332,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,14 +364,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -689,84 +728,84 @@
       <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -784,13 +823,13 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.796875" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -798,52 +837,52 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -851,27 +890,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -879,17 +918,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -897,27 +936,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -925,32 +964,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -958,27 +997,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -986,12 +1025,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -999,37 +1038,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1037,12 +1076,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1050,12 +1089,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1063,12 +1102,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1076,12 +1115,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1089,12 +1128,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1102,37 +1141,37 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1140,27 +1179,27 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>80</v>
       </c>
@@ -1183,28 +1222,29 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" customWidth="1"/>
-    <col min="3" max="5" width="8.796875" style="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1217,8 +1257,11 @@
       <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1228,8 +1271,11 @@
       <c r="D3" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1239,8 +1285,11 @@
       <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1250,8 +1299,11 @@
       <c r="D5" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1261,8 +1313,11 @@
       <c r="D6" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1272,8 +1327,11 @@
       <c r="D7" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1283,8 +1341,11 @@
       <c r="D8" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1294,8 +1355,11 @@
       <c r="D9" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -1305,8 +1369,11 @@
       <c r="D10" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1316,8 +1383,11 @@
       <c r="D11" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1327,8 +1397,11 @@
       <c r="D12" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1338,8 +1411,11 @@
       <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1349,8 +1425,11 @@
       <c r="D14" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1360,8 +1439,11 @@
       <c r="D15" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1371,8 +1453,11 @@
       <c r="D16" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1385,8 +1470,11 @@
       <c r="D17" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1396,8 +1484,11 @@
       <c r="D18" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1407,8 +1498,11 @@
       <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1418,8 +1512,11 @@
       <c r="D20" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -1429,8 +1526,11 @@
       <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1440,72 +1540,123 @@
       <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1515,104 +1666,182 @@
       <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1622,96 +1851,168 @@
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1721,88 +2022,154 @@
       <c r="C56" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -1812,80 +2179,140 @@
       <c r="C67" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>60</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1895,72 +2322,126 @@
       <c r="C77" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1970,64 +2451,112 @@
       <c r="C86" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>60</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2037,56 +2566,98 @@
       <c r="C94" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2096,48 +2667,84 @@
       <c r="C101" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2147,40 +2754,70 @@
       <c r="C107" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2190,32 +2827,56 @@
       <c r="C112" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -2225,24 +2886,42 @@
       <c r="C116" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -2252,16 +2931,28 @@
       <c r="C119" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -2271,8 +2962,15 @@
       <c r="C121" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="D121" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BDD1/Factura.xlsx
+++ b/BDD1/Factura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to-Semestre\BDD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B60C30-F618-4487-83B5-45FF11E10E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21A8819-8E3A-4EE3-A722-F2029C8B72A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7344" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -364,35 +370,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -722,96 +710,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C2DFC-C58D-42AC-B870-1E1D5B636633}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:XFD8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A1)</f>
+        <v>Tabla o entidad que guarda inofrmacion sobre Empresa</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A2)</f>
+        <v>Tabla o entidad que guarda inofrmacion sobre Sucursal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f t="shared" ref="B2:B16" si="0">_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A3)</f>
+        <v>Tabla o entidad que guarda inofrmacion sobre Bodega</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A4)</f>
+        <v>Tabla o entidad que guarda inofrmacion sobre Producto</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Transaccion</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Orde_Compra</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Cliente</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Provincia</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Ciudades</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A10)</f>
+        <v>Tabla o entidad que guarda inofrmacion sobre Facturas</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Categorias</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Unidad_Medida</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Forma_Pago</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A14)</f>
+        <v>Tabla o entidad que guarda inofrmacion sobre Vendedor</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A15)</f>
+        <v xml:space="preserve">Tabla o entidad que guarda inofrmacion sobre Comision </v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda inofrmacion sobre Proovedor</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -819,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E538842-7E04-4340-AA94-E3D7A9539E57}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -1221,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD2D823-9E7B-4844-AB6E-B257A17464D5}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1764,7 @@
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1910,7 +1963,7 @@
       <c r="D48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>91</v>
       </c>
     </row>

--- a/BDD1/Factura.xlsx
+++ b/BDD1/Factura.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to-Semestre\BDD1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to Sync\4to copia\4to-Semestre\BDD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21A8819-8E3A-4EE3-A722-F2029C8B72A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ACAF56-FAFF-4697-B9BD-BB82FAF621C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7344" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
+    <workbookView xWindow="-20610" yWindow="2100" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="160">
   <si>
     <t>Sucursal</t>
   </si>
@@ -317,14 +317,223 @@
   </si>
   <si>
     <t>1:1</t>
+  </si>
+  <si>
+    <t>Cedula o Ruc de la empresa</t>
+  </si>
+  <si>
+    <t>Nombre de la Empresa</t>
+  </si>
+  <si>
+    <t>Direccion donde esta la empresa</t>
+  </si>
+  <si>
+    <t>Numero de contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo de contacto </t>
+  </si>
+  <si>
+    <t>Num de las facturas asociadas a esta empresa</t>
+  </si>
+  <si>
+    <t>Codigo del SRI</t>
+  </si>
+  <si>
+    <t>Nombre del representante</t>
+  </si>
+  <si>
+    <t>Precio por comision?</t>
+  </si>
+  <si>
+    <t>Codigo de la empresa</t>
+  </si>
+  <si>
+    <t>Codigo identificador de la sucursal</t>
+  </si>
+  <si>
+    <t>Nombre de la sucursal</t>
+  </si>
+  <si>
+    <t>Direcion de la sucursal</t>
+  </si>
+  <si>
+    <t>Telefono de contacto de la sucursal</t>
+  </si>
+  <si>
+    <t>Responsable de la sucursal</t>
+  </si>
+  <si>
+    <t>Codigo Identificador de la bodega</t>
+  </si>
+  <si>
+    <t>Encargado de la bodega</t>
+  </si>
+  <si>
+    <t>Descripcion de las caracteristicas de la bodega</t>
+  </si>
+  <si>
+    <t>Codigo identificador del proovedor</t>
+  </si>
+  <si>
+    <t>Descripcion del proovedor</t>
+  </si>
+  <si>
+    <t>Telefono del proovedor</t>
+  </si>
+  <si>
+    <t>Contacto del proovedor?</t>
+  </si>
+  <si>
+    <t>Direcion del proobedor</t>
+  </si>
+  <si>
+    <t>Codigo identificador del producto</t>
+  </si>
+  <si>
+    <t>Descripcion general del producto</t>
+  </si>
+  <si>
+    <t>Precio actual del producto</t>
+  </si>
+  <si>
+    <t>Existencia actual del producto</t>
+  </si>
+  <si>
+    <t>Precio anterior del producto</t>
+  </si>
+  <si>
+    <t>Codigo de barra del producto</t>
+  </si>
+  <si>
+    <t>Numero de la orden de compra</t>
+  </si>
+  <si>
+    <t>Fecha de emision de la orden de compra</t>
+  </si>
+  <si>
+    <t>Fecha limite para recibir lo comprado</t>
+  </si>
+  <si>
+    <t>Fecha de llegada de los productos</t>
+  </si>
+  <si>
+    <t>Precio total</t>
+  </si>
+  <si>
+    <t>Codigo de la transaccion</t>
+  </si>
+  <si>
+    <t>Codigo de la provincia</t>
+  </si>
+  <si>
+    <t>Descripcion de la transaccion</t>
+  </si>
+  <si>
+    <t>Cedula o Ruc del cliente</t>
+  </si>
+  <si>
+    <t>Nombre del cliente</t>
+  </si>
+  <si>
+    <t>Apellido del cliente</t>
+  </si>
+  <si>
+    <t>Correo del cliente</t>
+  </si>
+  <si>
+    <t>Telefono del cliente</t>
+  </si>
+  <si>
+    <t>Direccion del cliente</t>
+  </si>
+  <si>
+    <t>Sector del cliente</t>
+  </si>
+  <si>
+    <t>Codigo de la ciudad</t>
+  </si>
+  <si>
+    <t>Nombre de la ciudad</t>
+  </si>
+  <si>
+    <t>Nombre de la provincia</t>
+  </si>
+  <si>
+    <t>Numero de Factura</t>
+  </si>
+  <si>
+    <t>Fecha de emision de la factura</t>
+  </si>
+  <si>
+    <t>Codigo de la categoria</t>
+  </si>
+  <si>
+    <t>Descripcion de la categoria</t>
+  </si>
+  <si>
+    <t>Codigo de la unidad de medida</t>
+  </si>
+  <si>
+    <t>Descripcion de la unidad de medida</t>
+  </si>
+  <si>
+    <t>Cedula del vendedor</t>
+  </si>
+  <si>
+    <t>Nombre del vendedor</t>
+  </si>
+  <si>
+    <t>Apellido del vendedor</t>
+  </si>
+  <si>
+    <t>Correo del vendedor</t>
+  </si>
+  <si>
+    <t>Telefono del vendedor</t>
+  </si>
+  <si>
+    <t>Comisiones totales del vendedor</t>
+  </si>
+  <si>
+    <t>Cuenta del banco</t>
+  </si>
+  <si>
+    <t>Codigo de la comision</t>
+  </si>
+  <si>
+    <t>Fecha de pago de la comision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de inicio </t>
+  </si>
+  <si>
+    <t>Fecha de fin</t>
+  </si>
+  <si>
+    <t>Cantidad total</t>
+  </si>
+  <si>
+    <t>Codigo de la forma de pago</t>
+  </si>
+  <si>
+    <t>Descripcion de la forma de pago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -370,12 +579,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -710,156 +920,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C2DFC-C58D-42AC-B870-1E1D5B636633}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="str">
-        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A1)</f>
-        <v>Tabla o entidad que guarda inofrmacion sobre Empresa</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("Tabla o entidad que guarda informacion sobre ",A1 )</f>
+        <v>Tabla o entidad que guarda informacion sobre Empresa</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A2)</f>
-        <v>Tabla o entidad que guarda inofrmacion sobre Sucursal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B2:B16" si="0">_xlfn.CONCAT("Tabla o entidad que guarda informacion sobre ",A2 )</f>
+        <v>Tabla o entidad que guarda informacion sobre Sucursal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B2:B16" si="0">_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A3)</f>
-        <v>Tabla o entidad que guarda inofrmacion sobre Bodega</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda informacion sobre Bodega</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A4)</f>
-        <v>Tabla o entidad que guarda inofrmacion sobre Producto</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda informacion sobre Producto</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Transaccion</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Transaccion</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Orde_Compra</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Orde_Compra</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Cliente</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Cliente</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Provincia</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Provincia</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Ciudades</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Ciudades</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A10)</f>
-        <v>Tabla o entidad que guarda inofrmacion sobre Facturas</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda informacion sobre Facturas</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Categorias</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Categorias</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Unidad_Medida</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Unidad_Medida</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Forma_Pago</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>Tabla o entidad que guarda informacion sobre Forma_Pago</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="str">
-        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A14)</f>
-        <v>Tabla o entidad que guarda inofrmacion sobre Vendedor</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Tabla o entidad que guarda informacion sobre Vendedor</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.CONCAT("Tabla o entidad que guarda inofrmacion sobre ",A15)</f>
-        <v xml:space="preserve">Tabla o entidad que guarda inofrmacion sobre Comision </v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Tabla o entidad que guarda informacion sobre Comision </v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>Tabla o entidad que guarda inofrmacion sobre Proovedor</v>
+        <v>Tabla o entidad que guarda informacion sobre Proovedor</v>
       </c>
     </row>
   </sheetData>
@@ -870,423 +1081,627 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E538842-7E04-4340-AA94-E3D7A9539E57}">
-  <dimension ref="A1:B67"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>80</v>
       </c>
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD2D823-9E7B-4844-AB6E-B257A17464D5}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1297,7 +1712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1328,7 +1743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +1757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1785,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1398,7 +1813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -1426,7 +1841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1496,7 +1911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +1956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +2012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +2026,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -1625,7 +2040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -1639,7 +2054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1653,7 +2068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +2082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +2096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +2110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -1709,7 +2124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1726,7 +2141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +2155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +2169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -1768,7 +2183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +2197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +2211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -1810,7 +2225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +2239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1838,7 +2253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -1852,7 +2267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +2281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>12</v>
       </c>
@@ -1880,7 +2295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -1894,7 +2309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +2326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>2</v>
       </c>
@@ -1925,7 +2340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>3</v>
       </c>
@@ -1939,7 +2354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +2368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>8</v>
       </c>
@@ -1967,7 +2382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -1981,7 +2396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>9</v>
       </c>
@@ -1995,7 +2410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2037,7 +2452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -2051,7 +2466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2065,7 +2480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>3</v>
       </c>
@@ -2096,7 +2511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>60</v>
       </c>
@@ -2138,7 +2553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>9</v>
       </c>
@@ -2152,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>4</v>
       </c>
@@ -2180,7 +2595,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -2194,7 +2609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>12</v>
       </c>
@@ -2208,7 +2623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -2222,7 +2637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2239,7 +2654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -2253,7 +2668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>60</v>
       </c>
@@ -2281,7 +2696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +2724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -2337,7 +2752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -2351,7 +2766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>15</v>
       </c>
@@ -2365,7 +2780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>8</v>
       </c>
@@ -2396,7 +2811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>60</v>
       </c>
@@ -2410,7 +2825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>9</v>
       </c>
@@ -2424,7 +2839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>10</v>
       </c>
@@ -2438,7 +2853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>4</v>
       </c>
@@ -2452,7 +2867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>11</v>
       </c>
@@ -2466,7 +2881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>12</v>
       </c>
@@ -2480,7 +2895,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +2909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +2926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>60</v>
       </c>
@@ -2525,7 +2940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2968,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>12</v>
       </c>
@@ -2595,7 +3010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>15</v>
       </c>
@@ -2609,7 +3024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2626,7 +3041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>9</v>
       </c>
@@ -2640,7 +3055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>10</v>
       </c>
@@ -2654,7 +3069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +3083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +3097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>12</v>
       </c>
@@ -2696,7 +3111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>15</v>
       </c>
@@ -2710,7 +3125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2727,7 +3142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +3156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +3170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>11</v>
       </c>
@@ -2769,7 +3184,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>12</v>
       </c>
@@ -2783,7 +3198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>15</v>
       </c>
@@ -2797,7 +3212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +3229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +3243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +3257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>12</v>
       </c>
@@ -2856,7 +3271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>15</v>
       </c>
@@ -2870,7 +3285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2887,7 +3302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>11</v>
       </c>
@@ -2901,7 +3316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>12</v>
       </c>
@@ -2915,7 +3330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>15</v>
       </c>
@@ -2929,7 +3344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -2946,7 +3361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>12</v>
       </c>
@@ -2960,7 +3375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +3389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +3406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>15</v>
       </c>
@@ -3005,7 +3420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>

--- a/BDD1/Factura.xlsx
+++ b/BDD1/Factura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to Sync\4to copia\4to-Semestre\BDD1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to-Semestre\BDD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ACAF56-FAFF-4697-B9BD-BB82FAF621C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45BB0A-02AF-4210-9C85-14D21E645810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2100" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7992" windowHeight="12360" activeTab="1" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -343,9 +343,6 @@
     <t>Nombre del representante</t>
   </si>
   <si>
-    <t>Precio por comision?</t>
-  </si>
-  <si>
     <t>Codigo de la empresa</t>
   </si>
   <si>
@@ -382,12 +379,6 @@
     <t>Telefono del proovedor</t>
   </si>
   <si>
-    <t>Contacto del proovedor?</t>
-  </si>
-  <si>
-    <t>Direcion del proobedor</t>
-  </si>
-  <si>
     <t>Codigo identificador del producto</t>
   </si>
   <si>
@@ -518,6 +509,15 @@
   </si>
   <si>
     <t>Descripcion de la forma de pago</t>
+  </si>
+  <si>
+    <t>Precio por comision</t>
+  </si>
+  <si>
+    <t>Contacto del proovedor</t>
+  </si>
+  <si>
+    <t>Direcion del proovedor</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -927,9 +927,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -938,7 +938,7 @@
         <v>Tabla o entidad que guarda informacion sobre Empresa</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -947,7 +947,7 @@
         <v>Tabla o entidad que guarda informacion sobre Sucursal</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -956,7 +956,7 @@
         <v>Tabla o entidad que guarda informacion sobre Bodega</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -965,7 +965,7 @@
         <v>Tabla o entidad que guarda informacion sobre Producto</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -974,7 +974,7 @@
         <v>Tabla o entidad que guarda informacion sobre Transaccion</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -983,7 +983,7 @@
         <v>Tabla o entidad que guarda informacion sobre Orde_Compra</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -992,7 +992,7 @@
         <v>Tabla o entidad que guarda informacion sobre Cliente</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>Tabla o entidad que guarda informacion sobre Provincia</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>Tabla o entidad que guarda informacion sobre Ciudades</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>Tabla o entidad que guarda informacion sobre Facturas</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>Tabla o entidad que guarda informacion sobre Categorias</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>Tabla o entidad que guarda informacion sobre Unidad_Medida</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>Tabla o entidad que guarda informacion sobre Forma_Pago</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>Tabla o entidad que guarda informacion sobre Vendedor</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v xml:space="preserve">Tabla o entidad que guarda informacion sobre Comision </v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1084,17 +1084,17 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -1161,23 +1161,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1185,42 +1185,42 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1228,26 +1228,26 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1255,42 +1255,42 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1298,50 +1298,50 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1349,42 +1349,42 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1392,18 +1392,18 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1411,58 +1411,58 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1470,18 +1470,18 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1489,18 +1489,18 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1508,18 +1508,18 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1527,18 +1527,18 @@
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1546,18 +1546,18 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1565,58 +1565,58 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1624,42 +1624,42 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1667,15 +1667,15 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1693,15 +1693,15 @@
       <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>12</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>2</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>3</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>8</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>9</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>3</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>60</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>9</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>4</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>12</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>60</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>60</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>10</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>4</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>11</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>12</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>60</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>10</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>4</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>11</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>12</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>15</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>11</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>12</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>15</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>10</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>12</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>15</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>11</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>12</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>15</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>15</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>12</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>15</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>15</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>12</v>
       </c>

--- a/BDD1/Factura.xlsx
+++ b/BDD1/Factura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to-Semestre\BDD1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to Sync\4to copia\4to-Semestre\BDD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45BB0A-02AF-4210-9C85-14D21E645810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A077648-1D49-416B-8A54-565187F4188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7992" windowHeight="12360" activeTab="1" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
+    <workbookView xWindow="-20610" yWindow="2100" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{13308039-8EE5-4B22-936E-BBA3FE403C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -927,9 +927,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -938,7 +938,7 @@
         <v>Tabla o entidad que guarda informacion sobre Empresa</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -947,7 +947,7 @@
         <v>Tabla o entidad que guarda informacion sobre Sucursal</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -956,7 +956,7 @@
         <v>Tabla o entidad que guarda informacion sobre Bodega</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -965,7 +965,7 @@
         <v>Tabla o entidad que guarda informacion sobre Producto</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -974,7 +974,7 @@
         <v>Tabla o entidad que guarda informacion sobre Transaccion</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -983,7 +983,7 @@
         <v>Tabla o entidad que guarda informacion sobre Orde_Compra</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -992,7 +992,7 @@
         <v>Tabla o entidad que guarda informacion sobre Cliente</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>Tabla o entidad que guarda informacion sobre Provincia</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>Tabla o entidad que guarda informacion sobre Ciudades</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>Tabla o entidad que guarda informacion sobre Facturas</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>Tabla o entidad que guarda informacion sobre Categorias</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>Tabla o entidad que guarda informacion sobre Unidad_Medida</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>Tabla o entidad que guarda informacion sobre Forma_Pago</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>Tabla o entidad que guarda informacion sobre Vendedor</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v xml:space="preserve">Tabla o entidad que guarda informacion sobre Comision </v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1084,17 +1084,17 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>81</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>83</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>53</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>56</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>58</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>62</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>64</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>65</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>66</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>68</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>69</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>70</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>71</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>72</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>73</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>78</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>75</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>76</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>77</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>80</v>
       </c>
@@ -1693,15 +1693,15 @@
       <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>12</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>2</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>3</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>8</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>9</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>3</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>60</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>9</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>4</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>12</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>60</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>60</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>10</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>4</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>11</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>12</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>60</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>10</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>4</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>11</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>12</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>15</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>11</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>12</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>15</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>10</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>12</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>15</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>11</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>12</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>15</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>15</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>12</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>15</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>15</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
